--- a/xlsxtemplate/chathai-templateV.1.0.0 (3).xlsx
+++ b/xlsxtemplate/chathai-templateV.1.0.0 (3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chathai\Chathai_OnDev\xlsxtemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7356D41-B7AE-49CF-BA18-DD46345C3465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F842A86-F60B-49A1-BAF5-166E58265471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,16 +93,16 @@
     <t>contains</t>
   </si>
   <si>
-    <t>input[name="email"]</t>
+    <t>ddt,users.json,password</t>
   </si>
   <si>
-    <t>ddt,pie.json,email</t>
+    <t>ddt,users.json,username</t>
   </si>
   <si>
-    <t>ddt,pie.json,password</t>
+    <t>ddt,users.json,expected</t>
   </si>
   <si>
-    <t>ddt,pie.json,expected</t>
+    <t>input[name="email"]</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -608,7 +608,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>17</v>
@@ -670,7 +670,7 @@
         <v>21</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="5"/>
     </row>
